--- a/biology/Zoologie/Coquette_de_Letizia/Coquette_de_Letizia.xlsx
+++ b/biology/Zoologie/Coquette_de_Letizia/Coquette_de_Letizia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Discosura letitiae
 La Coquette de Letizia ou Coquette de Létitia (Discosura letitiae) est une espèce de colibris de la sous-famille des Trochilinae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'existence de la Coquette de Letizia n'est connue que par deux spécimens récoltés un peu avant 1852, probablement en Bolivie.
 </t>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Référence CITES : espèce Discosura letitiae (Bourcier &amp; Mulsant, 1852)  (+ répartition sur Species+) (consulté le 1er juillet 2015)
 (fr) Référence CITES : taxon  Discosura letitiae (sur le site du ministère français de l'Écologie) (consulté le 1er juillet 2015)
